--- a/bd-outfiddrs-site-plan/BDO codes.xlsx
+++ b/bd-outfiddrs-site-plan/BDO codes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patblau/Desktop/Classes/20253_webfund/wwd130/wwr /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patblau/Desktop/Classes/20253_webfund/wwd130/bd-outfiddrs-site-plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4E4D18-C856-284F-8F18-315B06ADB6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB6445E-4DD2-0149-BA5B-11E554A20BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="3640" windowWidth="23780" windowHeight="16940" activeTab="1" xr2:uid="{7544527A-E949-AF45-9424-9E27F51ED949}"/>
+    <workbookView xWindow="8140" yWindow="3220" windowWidth="23780" windowHeight="16940" activeTab="1" xr2:uid="{7544527A-E949-AF45-9424-9E27F51ED949}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="2" r:id="rId1"/>
@@ -11534,7 +11534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11547,7 +11547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -11555,16 +11554,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11600,20 +11598,19 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11623,8 +11620,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
@@ -11633,34 +11629,34 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12334,12 +12330,12 @@
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="58" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="61" t="s">
+      <c r="A68" s="58" t="s">
         <v>206</v>
       </c>
     </row>
@@ -12349,7 +12345,7 @@
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="62" t="s">
+      <c r="A71" s="59" t="s">
         <v>209</v>
       </c>
     </row>
@@ -12362,8 +12358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E196D0-2C38-9D48-8511-18CD41702887}">
   <dimension ref="A1:M272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12418,7 +12414,7 @@
       <c r="B12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="31"/>
       <c r="J12">
         <v>0.8</v>
       </c>
@@ -12427,25 +12423,25 @@
       <c r="B13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="43"/>
+      <c r="I13" s="41"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="45"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="35"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="44"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="1" t="s">
@@ -12456,25 +12452,25 @@
       <c r="B18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="38"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="37"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="36"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="39"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="1" t="s">
@@ -12500,43 +12496,43 @@
       <c r="B28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="33"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I29" s="43"/>
+      <c r="I29" s="41"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="36"/>
+      <c r="I30" s="34"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I31" s="45"/>
+      <c r="I31" s="43"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="37"/>
+      <c r="I32" s="35"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I33" s="35"/>
+      <c r="I33" s="33"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="39"/>
+      <c r="I34" s="37"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="1" t="s">
@@ -12547,13 +12543,13 @@
       <c r="B36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="38"/>
+      <c r="I36" s="36"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I37" s="44"/>
+      <c r="I37" s="42"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="1" t="s">
@@ -12686,10 +12682,10 @@
       </c>
     </row>
     <row r="70" spans="2:10" ht="19">
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="I70" s="41" t="s">
+      <c r="I70" s="39" t="s">
         <v>109</v>
       </c>
     </row>
@@ -12700,7 +12696,7 @@
       <c r="I71" t="s">
         <v>104</v>
       </c>
-      <c r="J71" s="33"/>
+      <c r="J71" s="31"/>
     </row>
     <row r="72" spans="2:10" ht="18">
       <c r="B72" s="1" t="s">
@@ -12709,16 +12705,16 @@
       <c r="I72" t="s">
         <v>106</v>
       </c>
-      <c r="J72" s="34"/>
+      <c r="J72" s="32"/>
     </row>
     <row r="75" spans="2:10" ht="19">
       <c r="B75" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I75" s="41" t="s">
+      <c r="I75" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J75" s="39"/>
+      <c r="J75" s="37"/>
     </row>
     <row r="76" spans="2:10" ht="17" thickBot="1">
       <c r="B76" s="1" t="s">
@@ -12726,45 +12722,45 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="19">
-      <c r="B77" s="52" t="s">
+      <c r="B77" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="40"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="38"/>
     </row>
     <row r="78" spans="2:10" ht="19">
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="57"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="54"/>
     </row>
     <row r="79" spans="2:10" ht="19">
-      <c r="B79" s="55" t="s">
+      <c r="B79" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="57"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="54"/>
     </row>
     <row r="80" spans="2:10" ht="20" thickBot="1">
-      <c r="B80" s="58" t="s">
+      <c r="B80" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="60"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="57"/>
     </row>
     <row r="81" spans="1:11">
       <c r="B81" s="1" t="s">
@@ -12775,10 +12771,10 @@
       <c r="B83" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I83" s="41" t="s">
+      <c r="I83" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J83" s="46" t="s">
+      <c r="J83" s="44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12786,57 +12782,50 @@
       <c r="B84" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
       <c r="I84" t="s">
         <v>135</v>
       </c>
-      <c r="J84" s="37"/>
+      <c r="J84" s="35"/>
     </row>
     <row r="85" spans="1:11" ht="19">
-      <c r="A85" s="86"/>
-      <c r="B85" s="87" t="s">
+      <c r="A85" s="77"/>
+      <c r="B85" s="80" t="s">
         <v>55</v>
       </c>
       <c r="C85" s="81"/>
       <c r="D85" s="81"/>
       <c r="E85" s="81"/>
       <c r="F85" s="81"/>
-      <c r="G85" s="88"/>
-      <c r="H85" s="82"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="76"/>
     </row>
     <row r="86" spans="1:11" ht="19">
-      <c r="A86" s="86"/>
-      <c r="B86" s="80" t="s">
+      <c r="A86" s="77"/>
+      <c r="B86" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="80"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="80"/>
-      <c r="H86" s="82"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="83"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="83"/>
+      <c r="H86" s="76"/>
     </row>
     <row r="87" spans="1:11" ht="19">
-      <c r="B87" s="85" t="s">
+      <c r="B87" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C87" s="83"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="84"/>
-      <c r="H87" s="82"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="76"/>
     </row>
     <row r="88" spans="1:11">
       <c r="B88" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
     </row>
     <row r="89" spans="1:11">
       <c r="B89" s="3" t="s">
@@ -12870,7 +12859,7 @@
       <c r="H95" t="s">
         <v>107</v>
       </c>
-      <c r="I95" s="49" t="s">
+      <c r="I95" s="47" t="s">
         <v>79</v>
       </c>
       <c r="J95" t="s">
@@ -12884,7 +12873,7 @@
       <c r="H96" t="s">
         <v>107</v>
       </c>
-      <c r="I96" s="50" t="s">
+      <c r="I96" s="48" t="s">
         <v>129</v>
       </c>
       <c r="J96" t="s">
@@ -12901,7 +12890,7 @@
       <c r="H97" t="s">
         <v>107</v>
       </c>
-      <c r="I97" s="46" t="s">
+      <c r="I97" s="44" t="s">
         <v>126</v>
       </c>
       <c r="J97" t="s">
@@ -12915,7 +12904,7 @@
       <c r="H98" t="s">
         <v>107</v>
       </c>
-      <c r="I98" s="89" t="s">
+      <c r="I98" s="78" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12926,7 +12915,7 @@
       <c r="H99" t="s">
         <v>107</v>
       </c>
-      <c r="I99" s="90" t="s">
+      <c r="I99" s="79" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12937,7 +12926,7 @@
       <c r="H100" t="s">
         <v>107</v>
       </c>
-      <c r="I100" s="48" t="s">
+      <c r="I100" s="46" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12948,7 +12937,7 @@
       <c r="H101" t="s">
         <v>107</v>
       </c>
-      <c r="I101" s="47" t="s">
+      <c r="I101" s="45" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12982,7 +12971,7 @@
       <c r="H107" t="s">
         <v>107</v>
       </c>
-      <c r="I107" s="49" t="s">
+      <c r="I107" s="47" t="s">
         <v>79</v>
       </c>
       <c r="J107" t="s">
@@ -12999,7 +12988,7 @@
       <c r="H108" t="s">
         <v>107</v>
       </c>
-      <c r="I108" s="50" t="s">
+      <c r="I108" s="48" t="s">
         <v>129</v>
       </c>
       <c r="J108" t="s">
@@ -13031,7 +13020,7 @@
       <c r="H112" t="s">
         <v>107</v>
       </c>
-      <c r="I112" s="46" t="s">
+      <c r="I112" s="44" t="s">
         <v>126</v>
       </c>
       <c r="J112" t="s">
@@ -13093,7 +13082,7 @@
       <c r="G126" t="s">
         <v>107</v>
       </c>
-      <c r="H126" s="51" t="s">
+      <c r="H126" s="49" t="s">
         <v>129</v>
       </c>
       <c r="I126" t="s">
@@ -13152,55 +13141,45 @@
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="11"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="12"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="13"/>
+      <c r="C140" s="16"/>
+      <c r="K140" s="12"/>
     </row>
     <row r="141" spans="2:13">
       <c r="B141" s="11"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12" t="s">
+      <c r="C141" s="17"/>
+      <c r="E141" t="s">
         <v>79</v>
       </c>
-      <c r="F141" s="12" t="s">
+      <c r="F141" t="s">
         <v>1</v>
       </c>
-      <c r="G141" s="12" t="s">
+      <c r="G141" t="s">
         <v>2</v>
       </c>
-      <c r="H141" s="20" t="s">
+      <c r="H141" t="s">
         <v>144</v>
       </c>
-      <c r="I141" s="20" t="s">
+      <c r="I141" t="s">
         <v>19</v>
       </c>
-      <c r="J141" s="20"/>
-      <c r="K141" s="13"/>
+      <c r="K141" s="12"/>
     </row>
     <row r="142" spans="2:13" ht="17" thickBot="1">
       <c r="B142" s="11"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="13"/>
+      <c r="C142" s="18"/>
+      <c r="K142" s="12"/>
     </row>
     <row r="143" spans="2:13" ht="17" thickBot="1">
-      <c r="B143" s="14"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="16"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="15"/>
     </row>
     <row r="144" spans="2:13">
       <c r="B144" s="8"/>
@@ -13216,531 +13195,356 @@
     </row>
     <row r="145" spans="2:11">
       <c r="B145" s="11"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="13"/>
+      <c r="K145" s="12"/>
     </row>
     <row r="146" spans="2:11">
       <c r="B146" s="11"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="13"/>
+      <c r="K146" s="12"/>
     </row>
     <row r="147" spans="2:11">
       <c r="B147" s="11"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12" t="s">
+      <c r="D147" t="s">
         <v>81</v>
       </c>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="13"/>
+      <c r="K147" s="12"/>
     </row>
     <row r="148" spans="2:11">
       <c r="B148" s="11"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12" t="s">
+      <c r="D148" t="s">
         <v>22</v>
       </c>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="13"/>
+      <c r="K148" s="12"/>
     </row>
     <row r="149" spans="2:11">
       <c r="B149" s="11"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12" t="s">
+      <c r="D149" t="s">
         <v>21</v>
       </c>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="13"/>
+      <c r="K149" s="12"/>
     </row>
     <row r="150" spans="2:11">
       <c r="B150" s="11"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="20" t="s">
+      <c r="D150" t="s">
         <v>82</v>
       </c>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="13"/>
+      <c r="K150" s="12"/>
     </row>
     <row r="151" spans="2:11">
       <c r="B151" s="11"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12" t="s">
+      <c r="E151" t="s">
         <v>83</v>
       </c>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="13"/>
+      <c r="K151" s="12"/>
     </row>
     <row r="152" spans="2:11">
       <c r="B152" s="11"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="13"/>
+      <c r="K152" s="12"/>
     </row>
     <row r="153" spans="2:11">
       <c r="B153" s="11"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="13"/>
+      <c r="K153" s="12"/>
     </row>
     <row r="154" spans="2:11">
       <c r="B154" s="11"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="13"/>
+      <c r="K154" s="12"/>
     </row>
     <row r="155" spans="2:11">
       <c r="B155" s="11"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="13"/>
+      <c r="K155" s="12"/>
     </row>
     <row r="156" spans="2:11">
       <c r="B156" s="11"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="13"/>
+      <c r="K156" s="12"/>
     </row>
     <row r="157" spans="2:11">
       <c r="B157" s="11"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="13"/>
+      <c r="K157" s="12"/>
     </row>
     <row r="158" spans="2:11">
       <c r="B158" s="11"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="13"/>
+      <c r="K158" s="12"/>
     </row>
     <row r="159" spans="2:11">
       <c r="B159" s="11"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="13"/>
+      <c r="K159" s="12"/>
     </row>
     <row r="160" spans="2:11">
       <c r="B160" s="11"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="12"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="13"/>
+      <c r="K160" s="12"/>
     </row>
     <row r="161" spans="2:13">
       <c r="B161" s="11"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="13"/>
+      <c r="K161" s="12"/>
     </row>
     <row r="162" spans="2:13">
       <c r="B162" s="11"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="13"/>
+      <c r="K162" s="12"/>
     </row>
     <row r="163" spans="2:13" ht="17" thickBot="1">
-      <c r="B163" s="14"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="16"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="14"/>
+      <c r="K163" s="15"/>
     </row>
     <row r="166" spans="2:13" ht="17" thickBot="1"/>
     <row r="167" spans="2:13">
-      <c r="B167" s="17"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="12"/>
-      <c r="H167" s="17"/>
-      <c r="I167" s="12"/>
-      <c r="J167" s="17"/>
+      <c r="B167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="H167" s="16"/>
+      <c r="J167" s="16"/>
     </row>
     <row r="168" spans="2:13">
-      <c r="B168" s="18"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="12"/>
-      <c r="J168" s="18"/>
+      <c r="B168" s="17"/>
+      <c r="D168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="H168" s="17"/>
+      <c r="J168" s="17"/>
     </row>
     <row r="169" spans="2:13">
-      <c r="B169" s="18"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="12"/>
-      <c r="H169" s="18"/>
-      <c r="I169" s="12"/>
-      <c r="J169" s="18"/>
+      <c r="B169" s="17"/>
+      <c r="D169" s="17"/>
+      <c r="F169" s="17"/>
+      <c r="H169" s="17"/>
+      <c r="J169" s="17"/>
     </row>
     <row r="170" spans="2:13" ht="17" thickBot="1">
-      <c r="B170" s="19"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="12"/>
-      <c r="H170" s="19"/>
-      <c r="I170" s="12"/>
-      <c r="J170" s="19"/>
-    </row>
-    <row r="171" spans="2:13" ht="17" thickBot="1">
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="12"/>
-      <c r="J171" s="12"/>
-    </row>
+      <c r="B170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="F170" s="18"/>
+      <c r="H170" s="18"/>
+      <c r="J170" s="18"/>
+    </row>
+    <row r="171" spans="2:13" ht="17" thickBot="1"/>
     <row r="172" spans="2:13" ht="17" thickBot="1">
-      <c r="B172" s="21" t="s">
+      <c r="B172" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D172" s="21" t="s">
+      <c r="D172" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E172" s="12"/>
-      <c r="F172" s="21" t="s">
+      <c r="F172" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="G172" s="12"/>
-      <c r="H172" s="21" t="s">
+      <c r="H172" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J172" s="21" t="s">
+      <c r="J172" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="173" spans="2:13">
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="12"/>
-      <c r="G173" s="12"/>
-      <c r="H173" s="12"/>
-      <c r="I173" s="12"/>
     </row>
     <row r="174" spans="2:13" ht="17" thickBot="1"/>
     <row r="175" spans="2:13">
-      <c r="B175" s="22"/>
-      <c r="C175" s="23"/>
-      <c r="D175" s="23"/>
-      <c r="E175" s="23"/>
-      <c r="F175" s="23"/>
-      <c r="G175" s="23"/>
-      <c r="H175" s="23"/>
-      <c r="I175" s="23"/>
-      <c r="J175" s="23"/>
-      <c r="K175" s="24"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="21"/>
+      <c r="H175" s="21"/>
+      <c r="I175" s="21"/>
+      <c r="J175" s="21"/>
+      <c r="K175" s="22"/>
       <c r="M175" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="2:13">
-      <c r="B176" s="25"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
-      <c r="F176" s="26"/>
-      <c r="G176" s="26"/>
-      <c r="H176" s="26"/>
-      <c r="I176" s="26"/>
-      <c r="J176" s="26"/>
-      <c r="K176" s="27"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="24"/>
+      <c r="H176" s="24"/>
+      <c r="I176" s="24"/>
+      <c r="J176" s="24"/>
+      <c r="K176" s="25"/>
     </row>
     <row r="177" spans="2:13">
-      <c r="B177" s="25"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="26"/>
-      <c r="G177" s="26"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="26"/>
-      <c r="J177" s="26"/>
-      <c r="K177" s="27"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="24"/>
+      <c r="I177" s="24"/>
+      <c r="J177" s="24"/>
+      <c r="K177" s="25"/>
       <c r="M177" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="178" spans="2:13">
-      <c r="B178" s="25"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="29"/>
-      <c r="G178" s="29"/>
-      <c r="H178" s="29"/>
-      <c r="I178" s="29"/>
-      <c r="J178" s="26"/>
-      <c r="K178" s="27"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="24"/>
+      <c r="K178" s="25"/>
       <c r="M178" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="179" spans="2:13">
-      <c r="B179" s="25"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="29"/>
-      <c r="G179" s="29"/>
-      <c r="H179" s="29"/>
-      <c r="I179" s="29"/>
-      <c r="J179" s="26"/>
-      <c r="K179" s="27"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="24"/>
+      <c r="K179" s="25"/>
       <c r="M179" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="180" spans="2:13">
-      <c r="B180" s="25"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
-      <c r="E180" s="28"/>
-      <c r="F180" s="29"/>
-      <c r="G180" s="29"/>
-      <c r="H180" s="29"/>
-      <c r="I180" s="29"/>
-      <c r="J180" s="26"/>
-      <c r="K180" s="27"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="24"/>
+      <c r="K180" s="25"/>
       <c r="M180" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="181" spans="2:13">
-      <c r="B181" s="25"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
-      <c r="F181" s="29"/>
-      <c r="G181" s="29"/>
-      <c r="H181" s="29"/>
-      <c r="I181" s="29"/>
-      <c r="J181" s="26"/>
-      <c r="K181" s="27"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="26"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="24"/>
+      <c r="K181" s="25"/>
       <c r="M181" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="182" spans="2:13">
-      <c r="B182" s="25"/>
-      <c r="C182" s="28"/>
-      <c r="D182" s="28"/>
-      <c r="E182" s="28"/>
-      <c r="F182" s="29"/>
-      <c r="G182" s="29"/>
-      <c r="H182" s="29"/>
-      <c r="I182" s="29"/>
-      <c r="J182" s="26"/>
-      <c r="K182" s="27"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="26"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="24"/>
+      <c r="K182" s="25"/>
       <c r="M182" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="183" spans="2:13">
-      <c r="B183" s="25"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
-      <c r="E183" s="28"/>
-      <c r="F183" s="29"/>
-      <c r="G183" s="28" t="s">
+      <c r="B183" s="23"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="26"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="H183" s="29"/>
-      <c r="I183" s="29"/>
-      <c r="J183" s="26"/>
-      <c r="K183" s="27"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="24"/>
+      <c r="K183" s="25"/>
       <c r="M183" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="184" spans="2:13">
-      <c r="B184" s="25"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
-      <c r="F184" s="29"/>
-      <c r="G184" s="29"/>
-      <c r="H184" s="29"/>
-      <c r="I184" s="29"/>
-      <c r="J184" s="26"/>
-      <c r="K184" s="27"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="27"/>
+      <c r="J184" s="24"/>
+      <c r="K184" s="25"/>
       <c r="M184" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="185" spans="2:13">
-      <c r="B185" s="25"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
-      <c r="E185" s="28"/>
-      <c r="F185" s="26"/>
-      <c r="G185" s="26"/>
-      <c r="H185" s="26"/>
-      <c r="I185" s="26"/>
-      <c r="J185" s="26"/>
-      <c r="K185" s="27"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="26"/>
+      <c r="F185" s="24"/>
+      <c r="G185" s="24"/>
+      <c r="H185" s="24"/>
+      <c r="I185" s="24"/>
+      <c r="J185" s="24"/>
+      <c r="K185" s="25"/>
       <c r="M185" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="186" spans="2:13">
-      <c r="B186" s="25"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
-      <c r="F186" s="26"/>
-      <c r="G186" s="26"/>
-      <c r="H186" s="26"/>
-      <c r="I186" s="26"/>
-      <c r="J186" s="26"/>
-      <c r="K186" s="27"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
+      <c r="F186" s="24"/>
+      <c r="G186" s="24"/>
+      <c r="H186" s="24"/>
+      <c r="I186" s="24"/>
+      <c r="J186" s="24"/>
+      <c r="K186" s="25"/>
       <c r="M186" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="187" spans="2:13">
-      <c r="B187" s="25"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
-      <c r="F187" s="26"/>
-      <c r="G187" s="26"/>
-      <c r="H187" s="26"/>
-      <c r="I187" s="26"/>
-      <c r="J187" s="26"/>
-      <c r="K187" s="27"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="24"/>
+      <c r="G187" s="24"/>
+      <c r="H187" s="24"/>
+      <c r="I187" s="24"/>
+      <c r="J187" s="24"/>
+      <c r="K187" s="25"/>
       <c r="M187" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="188" spans="2:13" ht="17" thickBot="1">
-      <c r="B188" s="30"/>
-      <c r="C188" s="31"/>
-      <c r="D188" s="31"/>
-      <c r="E188" s="31"/>
-      <c r="F188" s="31"/>
-      <c r="G188" s="31"/>
-      <c r="H188" s="31"/>
-      <c r="I188" s="31"/>
-      <c r="J188" s="31"/>
-      <c r="K188" s="32"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="29"/>
+      <c r="F188" s="29"/>
+      <c r="G188" s="29"/>
+      <c r="H188" s="29"/>
+      <c r="I188" s="29"/>
+      <c r="J188" s="29"/>
+      <c r="K188" s="30"/>
     </row>
     <row r="189" spans="2:13">
       <c r="B189" s="8"/>
@@ -13756,390 +13560,294 @@
     </row>
     <row r="190" spans="2:13">
       <c r="B190" s="11"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="12"/>
-      <c r="G190" s="12"/>
-      <c r="H190" s="12"/>
-      <c r="I190" s="12"/>
-      <c r="J190" s="12"/>
-      <c r="K190" s="13"/>
+      <c r="K190" s="12"/>
     </row>
     <row r="191" spans="2:13" ht="17" thickBot="1">
       <c r="B191" s="11"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
-      <c r="F191" s="12"/>
-      <c r="G191" s="12"/>
-      <c r="H191" s="12"/>
-      <c r="I191" s="12"/>
-      <c r="J191" s="12"/>
-      <c r="K191" s="13"/>
+      <c r="K191" s="12"/>
     </row>
     <row r="192" spans="2:13">
       <c r="B192" s="11"/>
-      <c r="C192" s="12"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="12"/>
-      <c r="G192" s="12"/>
-      <c r="H192" s="12"/>
-      <c r="I192" s="17"/>
-      <c r="J192" s="17"/>
-      <c r="K192" s="17"/>
+      <c r="I192" s="16"/>
+      <c r="J192" s="16"/>
+      <c r="K192" s="16"/>
     </row>
     <row r="193" spans="2:13">
       <c r="B193" s="11"/>
-      <c r="C193" s="12" t="s">
+      <c r="C193" t="s">
         <v>87</v>
       </c>
-      <c r="D193" s="12"/>
-      <c r="E193" s="12" t="s">
+      <c r="E193" t="s">
         <v>88</v>
       </c>
-      <c r="F193" s="12"/>
-      <c r="G193" s="12" t="s">
+      <c r="G193" t="s">
         <v>89</v>
       </c>
-      <c r="H193" s="12"/>
-      <c r="I193" s="18"/>
-      <c r="J193" s="18"/>
-      <c r="K193" s="18"/>
+      <c r="I193" s="17"/>
+      <c r="J193" s="17"/>
+      <c r="K193" s="17"/>
     </row>
     <row r="194" spans="2:13" ht="17" thickBot="1">
       <c r="B194" s="11"/>
-      <c r="C194" s="12"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="12"/>
-      <c r="G194" s="12"/>
-      <c r="H194" s="12"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="19"/>
-      <c r="K194" s="19"/>
+      <c r="I194" s="18"/>
+      <c r="J194" s="18"/>
+      <c r="K194" s="18"/>
     </row>
     <row r="195" spans="2:13">
       <c r="B195" s="11"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
-      <c r="F195" s="12"/>
-      <c r="G195" s="12"/>
-      <c r="H195" s="12"/>
-      <c r="I195" s="12"/>
-      <c r="J195" s="12"/>
-      <c r="K195" s="13"/>
+      <c r="K195" s="12"/>
     </row>
     <row r="196" spans="2:13" ht="17" thickBot="1">
-      <c r="B196" s="14"/>
-      <c r="C196" s="15"/>
-      <c r="D196" s="15"/>
-      <c r="E196" s="15"/>
-      <c r="F196" s="15"/>
-      <c r="G196" s="15"/>
-      <c r="H196" s="15"/>
-      <c r="I196" s="15"/>
-      <c r="J196" s="15"/>
-      <c r="K196" s="16"/>
-    </row>
-    <row r="197" spans="2:13">
-      <c r="B197" s="12"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="12"/>
-      <c r="G197" s="12"/>
-      <c r="H197" s="12"/>
-      <c r="I197" s="12"/>
-      <c r="J197" s="12"/>
-      <c r="K197" s="12"/>
+      <c r="B196" s="13"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="14"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="14"/>
+      <c r="J196" s="14"/>
+      <c r="K196" s="15"/>
     </row>
     <row r="198" spans="2:13">
-      <c r="B198" s="12" t="s">
+      <c r="B198" t="s">
         <v>90</v>
       </c>
-      <c r="C198" s="12"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
-      <c r="F198" s="12"/>
-      <c r="G198" s="12"/>
-      <c r="H198" s="12"/>
-      <c r="I198" s="12"/>
-      <c r="J198" s="12"/>
-      <c r="K198" s="12"/>
     </row>
     <row r="199" spans="2:13" ht="17" thickBot="1"/>
     <row r="200" spans="2:13">
-      <c r="B200" s="17"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="17"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="17"/>
-      <c r="G200" s="12"/>
-      <c r="H200" s="17"/>
-      <c r="I200" s="12"/>
-      <c r="J200" s="12"/>
+      <c r="B200" s="16"/>
+      <c r="D200" s="16"/>
+      <c r="F200" s="16"/>
+      <c r="H200" s="16"/>
     </row>
     <row r="201" spans="2:13">
-      <c r="B201" s="18"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="18"/>
-      <c r="G201" s="12"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="12"/>
-      <c r="J201" s="12"/>
+      <c r="B201" s="17"/>
+      <c r="D201" s="17"/>
+      <c r="F201" s="17"/>
+      <c r="H201" s="17"/>
     </row>
     <row r="202" spans="2:13">
-      <c r="B202" s="18"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="18"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="18"/>
-      <c r="G202" s="12"/>
-      <c r="H202" s="18"/>
-      <c r="I202" s="12"/>
-      <c r="J202" s="12"/>
+      <c r="B202" s="17"/>
+      <c r="D202" s="17"/>
+      <c r="F202" s="17"/>
+      <c r="H202" s="17"/>
     </row>
     <row r="203" spans="2:13" ht="17" thickBot="1">
-      <c r="B203" s="19"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="19"/>
-      <c r="E203" s="12"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="12"/>
-      <c r="H203" s="19"/>
-      <c r="I203" s="12"/>
-      <c r="J203" s="12"/>
-    </row>
-    <row r="204" spans="2:13" ht="17" thickBot="1">
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
-      <c r="G204" s="12"/>
-      <c r="H204" s="12"/>
-      <c r="I204" s="12"/>
-      <c r="J204" s="12"/>
-    </row>
+      <c r="B203" s="18"/>
+      <c r="D203" s="18"/>
+      <c r="F203" s="18"/>
+      <c r="H203" s="18"/>
+    </row>
+    <row r="204" spans="2:13" ht="17" thickBot="1"/>
     <row r="205" spans="2:13" ht="17" thickBot="1">
-      <c r="B205" s="21" t="s">
+      <c r="B205" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D205" s="21" t="s">
+      <c r="D205" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="E205" s="12"/>
-      <c r="F205" s="21" t="s">
+      <c r="F205" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G205" s="12"/>
-      <c r="H205" s="21" t="s">
+      <c r="H205" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J205" s="12"/>
     </row>
     <row r="206" spans="2:13" ht="17" thickBot="1">
-      <c r="B206" s="12"/>
       <c r="D206" s="9"/>
-      <c r="E206" s="12"/>
       <c r="F206" s="9"/>
-      <c r="G206" s="12"/>
       <c r="H206" s="9"/>
-      <c r="J206" s="12"/>
     </row>
     <row r="207" spans="2:13">
-      <c r="B207" s="22"/>
-      <c r="C207" s="23"/>
-      <c r="D207" s="23"/>
-      <c r="E207" s="23"/>
-      <c r="F207" s="23"/>
-      <c r="G207" s="23"/>
-      <c r="H207" s="23"/>
-      <c r="I207" s="23"/>
-      <c r="J207" s="23"/>
-      <c r="K207" s="24"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="21"/>
+      <c r="J207" s="21"/>
+      <c r="K207" s="22"/>
       <c r="M207" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="208" spans="2:13">
-      <c r="B208" s="25"/>
-      <c r="C208" s="26"/>
-      <c r="D208" s="26"/>
-      <c r="E208" s="26"/>
-      <c r="F208" s="26"/>
-      <c r="G208" s="26"/>
-      <c r="H208" s="26"/>
-      <c r="I208" s="26"/>
-      <c r="J208" s="26"/>
-      <c r="K208" s="27"/>
+      <c r="B208" s="23"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="24"/>
+      <c r="F208" s="24"/>
+      <c r="G208" s="24"/>
+      <c r="H208" s="24"/>
+      <c r="I208" s="24"/>
+      <c r="J208" s="24"/>
+      <c r="K208" s="25"/>
     </row>
     <row r="209" spans="2:13">
-      <c r="B209" s="25"/>
-      <c r="C209" s="28"/>
-      <c r="D209" s="28"/>
-      <c r="E209" s="28"/>
-      <c r="F209" s="26"/>
-      <c r="G209" s="26"/>
-      <c r="H209" s="26"/>
-      <c r="I209" s="26"/>
-      <c r="J209" s="26"/>
-      <c r="K209" s="27"/>
+      <c r="B209" s="23"/>
+      <c r="C209" s="26"/>
+      <c r="D209" s="26"/>
+      <c r="E209" s="26"/>
+      <c r="F209" s="24"/>
+      <c r="G209" s="24"/>
+      <c r="H209" s="24"/>
+      <c r="I209" s="24"/>
+      <c r="J209" s="24"/>
+      <c r="K209" s="25"/>
       <c r="M209" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="210" spans="2:13">
-      <c r="B210" s="25"/>
-      <c r="C210" s="28"/>
-      <c r="D210" s="28"/>
-      <c r="E210" s="28"/>
-      <c r="F210" s="29"/>
-      <c r="G210" s="29"/>
-      <c r="H210" s="29"/>
-      <c r="I210" s="29"/>
-      <c r="J210" s="26"/>
-      <c r="K210" s="27"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="26"/>
+      <c r="D210" s="26"/>
+      <c r="E210" s="26"/>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="27"/>
+      <c r="J210" s="24"/>
+      <c r="K210" s="25"/>
       <c r="M210" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="211" spans="2:13">
-      <c r="B211" s="25"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="28"/>
-      <c r="E211" s="28"/>
-      <c r="F211" s="29"/>
-      <c r="G211" s="29"/>
-      <c r="H211" s="29"/>
-      <c r="I211" s="29"/>
-      <c r="J211" s="26"/>
-      <c r="K211" s="27"/>
+      <c r="B211" s="23"/>
+      <c r="C211" s="26"/>
+      <c r="D211" s="26"/>
+      <c r="E211" s="26"/>
+      <c r="F211" s="27"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27"/>
+      <c r="I211" s="27"/>
+      <c r="J211" s="24"/>
+      <c r="K211" s="25"/>
       <c r="M211" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="212" spans="2:13">
-      <c r="B212" s="25"/>
-      <c r="C212" s="28"/>
-      <c r="D212" s="28"/>
-      <c r="E212" s="28"/>
-      <c r="F212" s="29"/>
-      <c r="G212" s="29"/>
-      <c r="H212" s="29"/>
-      <c r="I212" s="29"/>
-      <c r="J212" s="26"/>
-      <c r="K212" s="27"/>
+      <c r="B212" s="23"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="26"/>
+      <c r="F212" s="27"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="27"/>
+      <c r="I212" s="27"/>
+      <c r="J212" s="24"/>
+      <c r="K212" s="25"/>
       <c r="M212" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="213" spans="2:13">
-      <c r="B213" s="25"/>
-      <c r="C213" s="28"/>
-      <c r="D213" s="28"/>
-      <c r="E213" s="28"/>
-      <c r="F213" s="29"/>
-      <c r="G213" s="29"/>
-      <c r="H213" s="29"/>
-      <c r="I213" s="29"/>
-      <c r="J213" s="26"/>
-      <c r="K213" s="27"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26"/>
+      <c r="F213" s="27"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="24"/>
+      <c r="K213" s="25"/>
       <c r="M213" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="214" spans="2:13">
-      <c r="B214" s="25"/>
-      <c r="C214" s="28"/>
-      <c r="D214" s="28"/>
-      <c r="E214" s="28"/>
-      <c r="F214" s="29"/>
-      <c r="G214" s="29"/>
-      <c r="H214" s="29"/>
-      <c r="I214" s="29"/>
-      <c r="J214" s="26"/>
-      <c r="K214" s="27"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="26"/>
+      <c r="D214" s="26"/>
+      <c r="E214" s="26"/>
+      <c r="F214" s="27"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27"/>
+      <c r="I214" s="27"/>
+      <c r="J214" s="24"/>
+      <c r="K214" s="25"/>
     </row>
     <row r="215" spans="2:13">
-      <c r="B215" s="25"/>
-      <c r="C215" s="28"/>
-      <c r="D215" s="28"/>
-      <c r="E215" s="28"/>
-      <c r="F215" s="29"/>
-      <c r="G215" s="28" t="s">
+      <c r="B215" s="23"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="26"/>
+      <c r="E215" s="26"/>
+      <c r="F215" s="27"/>
+      <c r="G215" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="H215" s="29"/>
-      <c r="I215" s="56" t="s">
+      <c r="H215" s="27"/>
+      <c r="I215" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="J215" s="26"/>
-      <c r="K215" s="27"/>
+      <c r="J215" s="24"/>
+      <c r="K215" s="25"/>
     </row>
     <row r="216" spans="2:13">
-      <c r="B216" s="25"/>
-      <c r="C216" s="28"/>
-      <c r="D216" s="28"/>
-      <c r="E216" s="28"/>
-      <c r="F216" s="29"/>
-      <c r="G216" s="29"/>
-      <c r="H216" s="29"/>
-      <c r="I216" s="29"/>
-      <c r="J216" s="26"/>
-      <c r="K216" s="27"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
+      <c r="F216" s="27"/>
+      <c r="G216" s="27"/>
+      <c r="H216" s="27"/>
+      <c r="I216" s="27"/>
+      <c r="J216" s="24"/>
+      <c r="K216" s="25"/>
     </row>
     <row r="217" spans="2:13">
-      <c r="B217" s="25"/>
-      <c r="C217" s="28"/>
-      <c r="D217" s="28"/>
-      <c r="E217" s="28"/>
-      <c r="F217" s="26"/>
-      <c r="G217" s="26"/>
-      <c r="H217" s="26"/>
-      <c r="I217" s="26"/>
-      <c r="J217" s="26"/>
-      <c r="K217" s="27"/>
+      <c r="B217" s="23"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="26"/>
+      <c r="E217" s="26"/>
+      <c r="F217" s="24"/>
+      <c r="G217" s="24"/>
+      <c r="H217" s="24"/>
+      <c r="I217" s="24"/>
+      <c r="J217" s="24"/>
+      <c r="K217" s="25"/>
     </row>
     <row r="218" spans="2:13">
-      <c r="B218" s="25"/>
-      <c r="C218" s="26"/>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
-      <c r="F218" s="26"/>
-      <c r="G218" s="26"/>
-      <c r="H218" s="26"/>
-      <c r="I218" s="26"/>
-      <c r="J218" s="26"/>
-      <c r="K218" s="27"/>
+      <c r="B218" s="23"/>
+      <c r="C218" s="24"/>
+      <c r="D218" s="24"/>
+      <c r="E218" s="24"/>
+      <c r="F218" s="24"/>
+      <c r="G218" s="24"/>
+      <c r="H218" s="24"/>
+      <c r="I218" s="24"/>
+      <c r="J218" s="24"/>
+      <c r="K218" s="25"/>
     </row>
     <row r="219" spans="2:13">
-      <c r="B219" s="25"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
-      <c r="F219" s="26"/>
-      <c r="G219" s="26"/>
-      <c r="H219" s="26"/>
-      <c r="I219" s="26"/>
-      <c r="J219" s="26"/>
-      <c r="K219" s="27"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="24"/>
+      <c r="D219" s="24"/>
+      <c r="E219" s="24"/>
+      <c r="F219" s="24"/>
+      <c r="G219" s="24"/>
+      <c r="H219" s="24"/>
+      <c r="I219" s="24"/>
+      <c r="J219" s="24"/>
+      <c r="K219" s="25"/>
     </row>
     <row r="220" spans="2:13" ht="17" thickBot="1">
-      <c r="B220" s="30"/>
-      <c r="C220" s="31"/>
-      <c r="D220" s="31"/>
-      <c r="E220" s="31"/>
-      <c r="F220" s="31"/>
-      <c r="G220" s="31"/>
-      <c r="H220" s="31"/>
-      <c r="I220" s="31"/>
-      <c r="J220" s="31"/>
-      <c r="K220" s="32"/>
+      <c r="B220" s="28"/>
+      <c r="C220" s="29"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="29"/>
+      <c r="F220" s="29"/>
+      <c r="G220" s="29"/>
+      <c r="H220" s="29"/>
+      <c r="I220" s="29"/>
+      <c r="J220" s="29"/>
+      <c r="K220" s="30"/>
     </row>
     <row r="221" spans="2:13">
       <c r="B221" s="8"/>
@@ -14155,172 +13863,104 @@
     </row>
     <row r="222" spans="2:13">
       <c r="B222" s="11"/>
-      <c r="C222" s="12"/>
-      <c r="D222" s="12"/>
-      <c r="E222" s="12"/>
-      <c r="F222" s="12"/>
-      <c r="G222" s="12"/>
-      <c r="H222" s="12"/>
-      <c r="I222" s="12"/>
-      <c r="J222" s="12"/>
-      <c r="K222" s="13"/>
+      <c r="K222" s="12"/>
     </row>
     <row r="223" spans="2:13" ht="17" thickBot="1">
       <c r="B223" s="11"/>
-      <c r="C223" s="12"/>
-      <c r="D223" s="12"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="12"/>
-      <c r="G223" s="12"/>
-      <c r="H223" s="12"/>
-      <c r="I223" s="12"/>
-      <c r="J223" s="12"/>
-      <c r="K223" s="13"/>
+      <c r="K223" s="12"/>
     </row>
     <row r="224" spans="2:13">
       <c r="B224" s="11"/>
-      <c r="C224" s="12"/>
-      <c r="D224" s="12"/>
-      <c r="E224" s="12"/>
-      <c r="F224" s="12"/>
-      <c r="G224" s="12"/>
-      <c r="H224" s="12"/>
-      <c r="I224" s="17"/>
-      <c r="J224" s="17"/>
-      <c r="K224" s="17"/>
+      <c r="I224" s="16"/>
+      <c r="J224" s="16"/>
+      <c r="K224" s="16"/>
     </row>
     <row r="225" spans="2:13">
       <c r="B225" s="11"/>
-      <c r="C225" s="12" t="s">
+      <c r="C225" t="s">
         <v>87</v>
       </c>
-      <c r="D225" s="12"/>
-      <c r="E225" s="12" t="s">
+      <c r="E225" t="s">
         <v>88</v>
       </c>
-      <c r="F225" s="12"/>
-      <c r="G225" s="12" t="s">
+      <c r="G225" t="s">
         <v>89</v>
       </c>
-      <c r="H225" s="12"/>
-      <c r="I225" s="18"/>
-      <c r="J225" s="18"/>
-      <c r="K225" s="18"/>
+      <c r="I225" s="17"/>
+      <c r="J225" s="17"/>
+      <c r="K225" s="17"/>
     </row>
     <row r="226" spans="2:13" ht="17" thickBot="1">
       <c r="B226" s="11"/>
-      <c r="C226" s="12"/>
-      <c r="D226" s="12"/>
-      <c r="E226" s="12"/>
-      <c r="F226" s="12"/>
-      <c r="G226" s="12"/>
-      <c r="H226" s="12"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="19"/>
-      <c r="K226" s="19"/>
+      <c r="I226" s="18"/>
+      <c r="J226" s="18"/>
+      <c r="K226" s="18"/>
     </row>
     <row r="227" spans="2:13">
       <c r="B227" s="11"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
-      <c r="E227" s="12"/>
-      <c r="F227" s="12"/>
-      <c r="G227" s="12"/>
-      <c r="H227" s="12"/>
-      <c r="I227" s="12"/>
-      <c r="J227" s="12"/>
-      <c r="K227" s="13"/>
+      <c r="K227" s="12"/>
     </row>
     <row r="228" spans="2:13" ht="17" thickBot="1">
-      <c r="B228" s="14"/>
-      <c r="C228" s="15"/>
-      <c r="D228" s="15"/>
-      <c r="E228" s="15"/>
-      <c r="F228" s="15"/>
-      <c r="G228" s="15"/>
-      <c r="H228" s="15"/>
-      <c r="I228" s="15"/>
-      <c r="J228" s="15"/>
-      <c r="K228" s="16"/>
+      <c r="B228" s="13"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="14"/>
+      <c r="G228" s="14"/>
+      <c r="H228" s="14"/>
+      <c r="I228" s="14"/>
+      <c r="J228" s="14"/>
+      <c r="K228" s="15"/>
     </row>
     <row r="230" spans="2:13">
       <c r="B230" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="231" spans="2:13" ht="17" thickBot="1">
-      <c r="J231" s="12"/>
-    </row>
+    <row r="231" spans="2:13" ht="17" thickBot="1"/>
     <row r="232" spans="2:13">
-      <c r="B232" s="17"/>
-      <c r="C232" s="12"/>
-      <c r="D232" s="17"/>
-      <c r="E232" s="12"/>
-      <c r="F232" s="17"/>
-      <c r="G232" s="12"/>
-      <c r="H232" s="17"/>
-      <c r="I232" s="12"/>
-      <c r="J232" s="17"/>
+      <c r="B232" s="16"/>
+      <c r="D232" s="16"/>
+      <c r="F232" s="16"/>
+      <c r="H232" s="16"/>
+      <c r="J232" s="16"/>
     </row>
     <row r="233" spans="2:13">
-      <c r="B233" s="18"/>
-      <c r="C233" s="12"/>
-      <c r="D233" s="18"/>
-      <c r="E233" s="12"/>
-      <c r="F233" s="18"/>
-      <c r="G233" s="12"/>
-      <c r="H233" s="18"/>
-      <c r="I233" s="12"/>
-      <c r="J233" s="18"/>
+      <c r="B233" s="17"/>
+      <c r="D233" s="17"/>
+      <c r="F233" s="17"/>
+      <c r="H233" s="17"/>
+      <c r="J233" s="17"/>
     </row>
     <row r="234" spans="2:13">
-      <c r="B234" s="18"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="18"/>
-      <c r="E234" s="12"/>
-      <c r="F234" s="18"/>
-      <c r="G234" s="12"/>
-      <c r="H234" s="18"/>
-      <c r="I234" s="12"/>
-      <c r="J234" s="18"/>
+      <c r="B234" s="17"/>
+      <c r="D234" s="17"/>
+      <c r="F234" s="17"/>
+      <c r="H234" s="17"/>
+      <c r="J234" s="17"/>
     </row>
     <row r="235" spans="2:13" ht="17" thickBot="1">
-      <c r="B235" s="19"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="19"/>
-      <c r="E235" s="12"/>
-      <c r="F235" s="19"/>
-      <c r="G235" s="12"/>
-      <c r="H235" s="19"/>
-      <c r="I235" s="12"/>
-      <c r="J235" s="19"/>
-    </row>
-    <row r="236" spans="2:13" ht="17" thickBot="1">
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
-      <c r="E236" s="12"/>
-      <c r="F236" s="12"/>
-      <c r="G236" s="12"/>
-      <c r="H236" s="12"/>
-      <c r="I236" s="12"/>
-      <c r="J236" s="12"/>
-    </row>
+      <c r="B235" s="18"/>
+      <c r="D235" s="18"/>
+      <c r="F235" s="18"/>
+      <c r="H235" s="18"/>
+      <c r="J235" s="18"/>
+    </row>
+    <row r="236" spans="2:13" ht="17" thickBot="1"/>
     <row r="237" spans="2:13" ht="17" thickBot="1">
-      <c r="B237" s="21" t="s">
+      <c r="B237" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D237" s="21" t="s">
+      <c r="D237" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E237" s="12"/>
-      <c r="F237" s="21" t="s">
+      <c r="F237" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="G237" s="12"/>
-      <c r="H237" s="21" t="s">
+      <c r="H237" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="J237" s="21" t="s">
+      <c r="J237" s="19" t="s">
         <v>165</v>
       </c>
     </row>
@@ -14331,201 +13971,200 @@
       <c r="H238" t="s">
         <v>160</v>
       </c>
-      <c r="J238" s="12"/>
     </row>
     <row r="239" spans="2:13" ht="17" thickBot="1"/>
     <row r="240" spans="2:13">
-      <c r="B240" s="22"/>
-      <c r="C240" s="23"/>
-      <c r="D240" s="23"/>
-      <c r="E240" s="23"/>
-      <c r="F240" s="23"/>
-      <c r="G240" s="23"/>
-      <c r="H240" s="23"/>
-      <c r="I240" s="23"/>
-      <c r="J240" s="23"/>
-      <c r="K240" s="24"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="21"/>
+      <c r="D240" s="21"/>
+      <c r="E240" s="21"/>
+      <c r="F240" s="21"/>
+      <c r="G240" s="21"/>
+      <c r="H240" s="21"/>
+      <c r="I240" s="21"/>
+      <c r="J240" s="21"/>
+      <c r="K240" s="22"/>
       <c r="M240" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="241" spans="2:13">
-      <c r="B241" s="25"/>
-      <c r="C241" s="26"/>
-      <c r="D241" s="26"/>
-      <c r="E241" s="26"/>
-      <c r="F241" s="26"/>
-      <c r="G241" s="26"/>
-      <c r="H241" s="26"/>
-      <c r="I241" s="26"/>
-      <c r="J241" s="26"/>
-      <c r="K241" s="27"/>
+      <c r="B241" s="23"/>
+      <c r="C241" s="24"/>
+      <c r="D241" s="24"/>
+      <c r="E241" s="24"/>
+      <c r="F241" s="24"/>
+      <c r="G241" s="24"/>
+      <c r="H241" s="24"/>
+      <c r="I241" s="24"/>
+      <c r="J241" s="24"/>
+      <c r="K241" s="25"/>
     </row>
     <row r="242" spans="2:13">
-      <c r="B242" s="25"/>
-      <c r="C242" s="28"/>
-      <c r="D242" s="28"/>
-      <c r="E242" s="28"/>
-      <c r="F242" s="26"/>
-      <c r="G242" s="26"/>
-      <c r="H242" s="26"/>
-      <c r="I242" s="26"/>
-      <c r="J242" s="26"/>
-      <c r="K242" s="27"/>
+      <c r="B242" s="23"/>
+      <c r="C242" s="26"/>
+      <c r="D242" s="26"/>
+      <c r="E242" s="26"/>
+      <c r="F242" s="24"/>
+      <c r="G242" s="24"/>
+      <c r="H242" s="24"/>
+      <c r="I242" s="24"/>
+      <c r="J242" s="24"/>
+      <c r="K242" s="25"/>
       <c r="M242" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="243" spans="2:13">
-      <c r="B243" s="25"/>
-      <c r="C243" s="28"/>
-      <c r="D243" s="28"/>
-      <c r="E243" s="28"/>
-      <c r="F243" s="29"/>
-      <c r="G243" s="29"/>
-      <c r="H243" s="29"/>
-      <c r="I243" s="29"/>
-      <c r="J243" s="26"/>
-      <c r="K243" s="27"/>
+      <c r="B243" s="23"/>
+      <c r="C243" s="26"/>
+      <c r="D243" s="26"/>
+      <c r="E243" s="26"/>
+      <c r="F243" s="27"/>
+      <c r="G243" s="27"/>
+      <c r="H243" s="27"/>
+      <c r="I243" s="27"/>
+      <c r="J243" s="24"/>
+      <c r="K243" s="25"/>
       <c r="M243" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="244" spans="2:13">
-      <c r="B244" s="25"/>
-      <c r="C244" s="28"/>
-      <c r="D244" s="28"/>
-      <c r="E244" s="28"/>
-      <c r="F244" s="29"/>
-      <c r="G244" s="29"/>
-      <c r="H244" s="29"/>
-      <c r="I244" s="29"/>
-      <c r="J244" s="26"/>
-      <c r="K244" s="27"/>
+      <c r="B244" s="23"/>
+      <c r="C244" s="26"/>
+      <c r="D244" s="26"/>
+      <c r="E244" s="26"/>
+      <c r="F244" s="27"/>
+      <c r="G244" s="27"/>
+      <c r="H244" s="27"/>
+      <c r="I244" s="27"/>
+      <c r="J244" s="24"/>
+      <c r="K244" s="25"/>
       <c r="M244" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="245" spans="2:13">
-      <c r="B245" s="25"/>
-      <c r="C245" s="28"/>
-      <c r="D245" s="28"/>
-      <c r="E245" s="28"/>
-      <c r="F245" s="29"/>
-      <c r="G245" s="29"/>
-      <c r="H245" s="29"/>
-      <c r="I245" s="29"/>
-      <c r="J245" s="26"/>
-      <c r="K245" s="27"/>
+      <c r="B245" s="23"/>
+      <c r="C245" s="26"/>
+      <c r="D245" s="26"/>
+      <c r="E245" s="26"/>
+      <c r="F245" s="27"/>
+      <c r="G245" s="27"/>
+      <c r="H245" s="27"/>
+      <c r="I245" s="27"/>
+      <c r="J245" s="24"/>
+      <c r="K245" s="25"/>
       <c r="M245" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="246" spans="2:13">
-      <c r="B246" s="25"/>
-      <c r="C246" s="28"/>
-      <c r="D246" s="28"/>
-      <c r="E246" s="28"/>
-      <c r="F246" s="29"/>
-      <c r="G246" s="29"/>
-      <c r="H246" s="29"/>
-      <c r="I246" s="29"/>
-      <c r="J246" s="26"/>
-      <c r="K246" s="27"/>
+      <c r="B246" s="23"/>
+      <c r="C246" s="26"/>
+      <c r="D246" s="26"/>
+      <c r="E246" s="26"/>
+      <c r="F246" s="27"/>
+      <c r="G246" s="27"/>
+      <c r="H246" s="27"/>
+      <c r="I246" s="27"/>
+      <c r="J246" s="24"/>
+      <c r="K246" s="25"/>
       <c r="M246" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="247" spans="2:13">
-      <c r="B247" s="25"/>
-      <c r="C247" s="28"/>
-      <c r="D247" s="28"/>
-      <c r="E247" s="28"/>
-      <c r="F247" s="29"/>
-      <c r="G247" s="29"/>
-      <c r="H247" s="29"/>
-      <c r="I247" s="29"/>
-      <c r="J247" s="26"/>
-      <c r="K247" s="27"/>
+      <c r="B247" s="23"/>
+      <c r="C247" s="26"/>
+      <c r="D247" s="26"/>
+      <c r="E247" s="26"/>
+      <c r="F247" s="27"/>
+      <c r="G247" s="27"/>
+      <c r="H247" s="27"/>
+      <c r="I247" s="27"/>
+      <c r="J247" s="24"/>
+      <c r="K247" s="25"/>
       <c r="M247" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="248" spans="2:13">
-      <c r="B248" s="25"/>
-      <c r="C248" s="28"/>
-      <c r="D248" s="28"/>
-      <c r="E248" s="28"/>
-      <c r="F248" s="29"/>
-      <c r="G248" s="28" t="s">
+      <c r="B248" s="23"/>
+      <c r="C248" s="26"/>
+      <c r="D248" s="26"/>
+      <c r="E248" s="26"/>
+      <c r="F248" s="27"/>
+      <c r="G248" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="H248" s="29"/>
-      <c r="I248" s="28" t="s">
+      <c r="H248" s="27"/>
+      <c r="I248" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="J248" s="26"/>
-      <c r="K248" s="27"/>
+      <c r="J248" s="24"/>
+      <c r="K248" s="25"/>
     </row>
     <row r="249" spans="2:13">
-      <c r="B249" s="25"/>
-      <c r="C249" s="28"/>
-      <c r="D249" s="28"/>
-      <c r="E249" s="28"/>
-      <c r="F249" s="29"/>
-      <c r="G249" s="29"/>
-      <c r="H249" s="29"/>
-      <c r="I249" s="29"/>
-      <c r="J249" s="26"/>
-      <c r="K249" s="27"/>
+      <c r="B249" s="23"/>
+      <c r="C249" s="26"/>
+      <c r="D249" s="26"/>
+      <c r="E249" s="26"/>
+      <c r="F249" s="27"/>
+      <c r="G249" s="27"/>
+      <c r="H249" s="27"/>
+      <c r="I249" s="27"/>
+      <c r="J249" s="24"/>
+      <c r="K249" s="25"/>
     </row>
     <row r="250" spans="2:13">
-      <c r="B250" s="25"/>
-      <c r="C250" s="28"/>
-      <c r="D250" s="28"/>
-      <c r="E250" s="28"/>
-      <c r="F250" s="26"/>
-      <c r="G250" s="26"/>
-      <c r="H250" s="26"/>
-      <c r="I250" s="26"/>
-      <c r="J250" s="26"/>
-      <c r="K250" s="27"/>
+      <c r="B250" s="23"/>
+      <c r="C250" s="26"/>
+      <c r="D250" s="26"/>
+      <c r="E250" s="26"/>
+      <c r="F250" s="24"/>
+      <c r="G250" s="24"/>
+      <c r="H250" s="24"/>
+      <c r="I250" s="24"/>
+      <c r="J250" s="24"/>
+      <c r="K250" s="25"/>
     </row>
     <row r="251" spans="2:13">
-      <c r="B251" s="25"/>
-      <c r="C251" s="26"/>
-      <c r="D251" s="26"/>
-      <c r="E251" s="26"/>
-      <c r="F251" s="26"/>
-      <c r="G251" s="26"/>
-      <c r="H251" s="26"/>
-      <c r="I251" s="26"/>
-      <c r="J251" s="26"/>
-      <c r="K251" s="27"/>
+      <c r="B251" s="23"/>
+      <c r="C251" s="24"/>
+      <c r="D251" s="24"/>
+      <c r="E251" s="24"/>
+      <c r="F251" s="24"/>
+      <c r="G251" s="24"/>
+      <c r="H251" s="24"/>
+      <c r="I251" s="24"/>
+      <c r="J251" s="24"/>
+      <c r="K251" s="25"/>
     </row>
     <row r="252" spans="2:13">
-      <c r="B252" s="25"/>
-      <c r="C252" s="26"/>
-      <c r="D252" s="26"/>
-      <c r="E252" s="26"/>
-      <c r="F252" s="26"/>
-      <c r="G252" s="26"/>
-      <c r="H252" s="26"/>
-      <c r="I252" s="26"/>
-      <c r="J252" s="26"/>
-      <c r="K252" s="27"/>
+      <c r="B252" s="23"/>
+      <c r="C252" s="24"/>
+      <c r="D252" s="24"/>
+      <c r="E252" s="24"/>
+      <c r="F252" s="24"/>
+      <c r="G252" s="24"/>
+      <c r="H252" s="24"/>
+      <c r="I252" s="24"/>
+      <c r="J252" s="24"/>
+      <c r="K252" s="25"/>
     </row>
     <row r="253" spans="2:13" ht="17" thickBot="1">
-      <c r="B253" s="30"/>
-      <c r="C253" s="31"/>
-      <c r="D253" s="31"/>
-      <c r="E253" s="31"/>
-      <c r="F253" s="31"/>
-      <c r="G253" s="31"/>
-      <c r="H253" s="31"/>
-      <c r="I253" s="31"/>
-      <c r="J253" s="31"/>
-      <c r="K253" s="32"/>
+      <c r="B253" s="28"/>
+      <c r="C253" s="29"/>
+      <c r="D253" s="29"/>
+      <c r="E253" s="29"/>
+      <c r="F253" s="29"/>
+      <c r="G253" s="29"/>
+      <c r="H253" s="29"/>
+      <c r="I253" s="29"/>
+      <c r="J253" s="29"/>
+      <c r="K253" s="30"/>
     </row>
     <row r="254" spans="2:13">
       <c r="B254" s="8"/>
@@ -14541,157 +14180,92 @@
     </row>
     <row r="255" spans="2:13">
       <c r="B255" s="11"/>
-      <c r="C255" s="12"/>
-      <c r="D255" s="12"/>
-      <c r="E255" s="12"/>
-      <c r="F255" s="12"/>
-      <c r="G255" s="12"/>
-      <c r="H255" s="12"/>
-      <c r="I255" s="12"/>
-      <c r="J255" s="12"/>
-      <c r="K255" s="13"/>
+      <c r="K255" s="12"/>
     </row>
     <row r="256" spans="2:13" ht="17" thickBot="1">
       <c r="B256" s="11"/>
-      <c r="C256" s="12"/>
-      <c r="D256" s="12"/>
-      <c r="E256" s="12"/>
-      <c r="F256" s="12"/>
-      <c r="G256" s="12"/>
-      <c r="H256" s="12"/>
-      <c r="I256" s="12"/>
-      <c r="J256" s="12"/>
-      <c r="K256" s="13"/>
+      <c r="K256" s="12"/>
     </row>
     <row r="257" spans="2:11">
       <c r="B257" s="11"/>
-      <c r="C257" s="12"/>
-      <c r="D257" s="12"/>
-      <c r="E257" s="12"/>
-      <c r="F257" s="12"/>
-      <c r="G257" s="12"/>
-      <c r="H257" s="12"/>
-      <c r="I257" s="17"/>
-      <c r="J257" s="17"/>
-      <c r="K257" s="17"/>
+      <c r="I257" s="16"/>
+      <c r="J257" s="16"/>
+      <c r="K257" s="16"/>
     </row>
     <row r="258" spans="2:11">
       <c r="B258" s="11"/>
-      <c r="C258" s="12" t="s">
+      <c r="C258" t="s">
         <v>87</v>
       </c>
-      <c r="D258" s="12"/>
-      <c r="E258" s="12" t="s">
+      <c r="E258" t="s">
         <v>88</v>
       </c>
-      <c r="F258" s="12"/>
-      <c r="G258" s="12" t="s">
+      <c r="G258" t="s">
         <v>89</v>
       </c>
-      <c r="H258" s="12"/>
-      <c r="I258" s="18"/>
-      <c r="J258" s="18"/>
-      <c r="K258" s="18"/>
+      <c r="I258" s="17"/>
+      <c r="J258" s="17"/>
+      <c r="K258" s="17"/>
     </row>
     <row r="259" spans="2:11" ht="17" thickBot="1">
       <c r="B259" s="11"/>
-      <c r="C259" s="12"/>
-      <c r="D259" s="12"/>
-      <c r="E259" s="12"/>
-      <c r="F259" s="12"/>
-      <c r="G259" s="12"/>
-      <c r="H259" s="12"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="19"/>
-      <c r="K259" s="19"/>
+      <c r="I259" s="18"/>
+      <c r="J259" s="18"/>
+      <c r="K259" s="18"/>
     </row>
     <row r="260" spans="2:11">
       <c r="B260" s="11"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="12"/>
-      <c r="E260" s="12"/>
-      <c r="F260" s="12"/>
-      <c r="G260" s="12"/>
-      <c r="H260" s="12"/>
-      <c r="I260" s="12"/>
-      <c r="J260" s="12"/>
-      <c r="K260" s="13"/>
+      <c r="K260" s="12"/>
     </row>
     <row r="261" spans="2:11" ht="17" thickBot="1">
-      <c r="B261" s="14"/>
-      <c r="C261" s="15"/>
-      <c r="D261" s="15"/>
-      <c r="E261" s="15"/>
-      <c r="F261" s="15"/>
-      <c r="G261" s="15"/>
-      <c r="H261" s="15"/>
-      <c r="I261" s="15"/>
-      <c r="J261" s="15"/>
-      <c r="K261" s="16"/>
+      <c r="B261" s="13"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="14"/>
+      <c r="H261" s="14"/>
+      <c r="I261" s="14"/>
+      <c r="J261" s="14"/>
+      <c r="K261" s="15"/>
     </row>
     <row r="262" spans="2:11" ht="17" thickBot="1"/>
     <row r="263" spans="2:11">
-      <c r="B263" s="17"/>
-      <c r="C263" s="12"/>
-      <c r="D263" s="17"/>
-      <c r="E263" s="12"/>
-      <c r="F263" s="17"/>
-      <c r="G263" s="12"/>
-      <c r="H263" s="17"/>
-      <c r="I263" s="12"/>
+      <c r="B263" s="16"/>
+      <c r="D263" s="16"/>
+      <c r="F263" s="16"/>
+      <c r="H263" s="16"/>
     </row>
     <row r="264" spans="2:11">
-      <c r="B264" s="18"/>
-      <c r="C264" s="12"/>
-      <c r="D264" s="18"/>
-      <c r="E264" s="12"/>
-      <c r="F264" s="18"/>
-      <c r="G264" s="12"/>
-      <c r="H264" s="18"/>
-      <c r="I264" s="12"/>
+      <c r="B264" s="17"/>
+      <c r="D264" s="17"/>
+      <c r="F264" s="17"/>
+      <c r="H264" s="17"/>
     </row>
     <row r="265" spans="2:11">
-      <c r="B265" s="18"/>
-      <c r="C265" s="12"/>
-      <c r="D265" s="18"/>
-      <c r="E265" s="12"/>
-      <c r="F265" s="18"/>
-      <c r="G265" s="12"/>
-      <c r="H265" s="18"/>
-      <c r="I265" s="12"/>
+      <c r="B265" s="17"/>
+      <c r="D265" s="17"/>
+      <c r="F265" s="17"/>
+      <c r="H265" s="17"/>
     </row>
     <row r="266" spans="2:11" ht="17" thickBot="1">
-      <c r="B266" s="19"/>
-      <c r="C266" s="12"/>
-      <c r="D266" s="19"/>
-      <c r="E266" s="12"/>
-      <c r="F266" s="19"/>
-      <c r="G266" s="12"/>
-      <c r="H266" s="19"/>
-      <c r="I266" s="12"/>
-    </row>
-    <row r="267" spans="2:11" ht="17" thickBot="1">
-      <c r="C267" s="12"/>
-      <c r="D267" s="12"/>
-      <c r="E267" s="12"/>
-      <c r="F267" s="12"/>
-      <c r="G267" s="12"/>
-      <c r="H267" s="12"/>
-      <c r="I267" s="12"/>
-    </row>
+      <c r="B266" s="18"/>
+      <c r="D266" s="18"/>
+      <c r="F266" s="18"/>
+      <c r="H266" s="18"/>
+    </row>
+    <row r="267" spans="2:11" ht="17" thickBot="1"/>
     <row r="268" spans="2:11" ht="17" thickBot="1">
-      <c r="B268" s="21" t="s">
+      <c r="B268" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D268" s="21" t="s">
+      <c r="D268" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E268" s="12"/>
-      <c r="F268" s="21" t="s">
+      <c r="F268" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G268" s="12"/>
-      <c r="H268" s="21" t="s">
+      <c r="H268" s="19" t="s">
         <v>163</v>
       </c>
     </row>
@@ -14728,6 +14302,7 @@
     <mergeCell ref="B87:G87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -14747,1568 +14322,1138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="65"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="67"/>
       <c r="S2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="63"/>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="S3" s="76" t="s">
+      <c r="C3" s="67"/>
+      <c r="S3" s="72" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="63"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="S4" s="77" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="S4" s="73" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="63"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="S5" s="77" t="s">
+      <c r="C5" s="67"/>
+      <c r="S5" s="73" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="63"/>
-      <c r="B6" s="71" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="S6" s="77" t="s">
+      <c r="C6" s="67"/>
+      <c r="S6" s="73" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="63"/>
-      <c r="B7" s="71" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="S7" s="77" t="s">
+      <c r="C7" s="67"/>
+      <c r="S7" s="73" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="S8" s="77" t="s">
+      <c r="C8" s="67"/>
+      <c r="S8" s="73" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="63"/>
-      <c r="B9" s="71" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="S9" s="76" t="s">
+      <c r="C9" s="67"/>
+      <c r="S9" s="72" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="63"/>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="67"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="63"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="63"/>
-      <c r="B12" s="68" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="63"/>
-      <c r="B13" s="68" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="63"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="68" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="63"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="68" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="63"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="68" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="63"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="63"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="68" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="63"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="69" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="63"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="69" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="63"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="63"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="S22" s="77" t="s">
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="S22" s="73" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="63"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="63"/>
-      <c r="B24" s="68" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="63"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="68" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="63"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="73" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="63"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="68" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="63"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="68" t="s">
+      <c r="A28" s="60"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="63"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="68" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="63"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="69" t="s">
+      <c r="A30" s="60"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="63"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="69" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="63"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="68" t="s">
+      <c r="A32" s="60"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="63"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="68" t="s">
+      <c r="A33" s="60"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="63"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="68" t="s">
+      <c r="A34" s="60"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="63"/>
-      <c r="B35" s="68" t="s">
+      <c r="A35" s="60"/>
+      <c r="B35" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="63"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="63"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="60"/>
+      <c r="B37" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="63"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="63"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="63"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="63"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="63"/>
-      <c r="B42" s="68" t="s">
+      <c r="A42" s="60"/>
+      <c r="B42" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="63"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="68" t="s">
+      <c r="A43" s="60"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="63"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="69" t="s">
+      <c r="A44" s="60"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="63"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="69" t="s">
+      <c r="A45" s="60"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="63"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="69" t="s">
+      <c r="A46" s="60"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="63"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69" t="s">
+      <c r="A47" s="60"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="63"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="63"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="68" t="s">
+      <c r="A48" s="60"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="60"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="63"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="69" t="s">
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="60"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="63"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="69" t="s">
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="60"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="63"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="69" t="s">
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="60"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="63"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69" t="s">
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="60"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="63"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="63"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69" t="s">
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="60"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="60"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="63"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="69" t="s">
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="60"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="63"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="69" t="s">
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="60"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="63"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="69" t="s">
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="60"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="63"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="68" t="s">
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="60"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="D59" s="69"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="74"/>
-      <c r="L59" s="74"/>
-      <c r="M59" s="74"/>
-      <c r="N59" s="74"/>
-      <c r="O59" s="74"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="63"/>
-      <c r="B60" s="69" t="s">
+      <c r="D59" s="66"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="60"/>
+      <c r="B60" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="74"/>
-      <c r="O60" s="74"/>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="63"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="74"/>
-      <c r="L61" s="74"/>
-      <c r="M61" s="74"/>
-      <c r="N61" s="74"/>
-      <c r="O61" s="74"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="63"/>
-      <c r="B62" s="68" t="s">
+      <c r="C60" s="67"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="60"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="60"/>
+      <c r="B62" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="C62" s="70"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="74"/>
-      <c r="K62" s="74"/>
-      <c r="L62" s="74"/>
-      <c r="M62" s="74"/>
-      <c r="N62" s="74"/>
-      <c r="O62" s="74"/>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="63"/>
-      <c r="B63" s="74"/>
-      <c r="C63" s="69" t="s">
+      <c r="C62" s="67"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="60"/>
+      <c r="C63" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="D63" s="69"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="74"/>
-      <c r="J63" s="74"/>
-      <c r="K63" s="74"/>
-      <c r="L63" s="74"/>
-      <c r="M63" s="74"/>
-      <c r="N63" s="74"/>
-      <c r="O63" s="74"/>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="63"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="69" t="s">
+      <c r="D63" s="66"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="60"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="74"/>
-      <c r="K64" s="74"/>
-      <c r="L64" s="74"/>
-      <c r="M64" s="74"/>
-      <c r="N64" s="74"/>
-      <c r="O64" s="74"/>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="63"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="69" t="s">
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="60"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
-      <c r="L65" s="74"/>
-      <c r="M65" s="74"/>
-      <c r="N65" s="74"/>
-      <c r="O65" s="74"/>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="63"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="69" t="s">
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="60"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="74"/>
-      <c r="J66" s="74"/>
-      <c r="K66" s="74"/>
-      <c r="L66" s="74"/>
-      <c r="M66" s="74"/>
-      <c r="N66" s="74"/>
-      <c r="O66" s="74"/>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="63"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="69" t="s">
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="60"/>
+      <c r="C67" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="D67" s="69"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="74"/>
-      <c r="L67" s="74"/>
-      <c r="M67" s="74"/>
-      <c r="N67" s="74"/>
-      <c r="O67" s="74"/>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="63"/>
-      <c r="B68" s="74"/>
-      <c r="C68" s="69" t="s">
+      <c r="D67" s="66"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="60"/>
+      <c r="C68" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="D68" s="69"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="74"/>
-      <c r="L68" s="74"/>
-      <c r="M68" s="74"/>
-      <c r="N68" s="74"/>
-      <c r="O68" s="74"/>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="63"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="69" t="s">
+      <c r="D68" s="66"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="60"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="74"/>
-      <c r="J69" s="74"/>
-      <c r="K69" s="74"/>
-      <c r="L69" s="74"/>
-      <c r="M69" s="74"/>
-      <c r="N69" s="74"/>
-      <c r="O69" s="74"/>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="63"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="69" t="s">
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="60"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="74"/>
-      <c r="K70" s="74"/>
-      <c r="L70" s="74"/>
-      <c r="M70" s="74"/>
-      <c r="N70" s="74"/>
-      <c r="O70" s="74"/>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="63"/>
-      <c r="B71" s="74"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="69" t="s">
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="60"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="74"/>
-      <c r="I71" s="74"/>
-      <c r="J71" s="74"/>
-      <c r="K71" s="74"/>
-      <c r="L71" s="74"/>
-      <c r="M71" s="74"/>
-      <c r="N71" s="74"/>
-      <c r="O71" s="74"/>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="63"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="69" t="s">
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="60"/>
+      <c r="C72" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="D72" s="69"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="74"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="74"/>
-      <c r="L72" s="74"/>
-      <c r="M72" s="74"/>
-      <c r="N72" s="74"/>
-      <c r="O72" s="74"/>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="63"/>
-      <c r="B73" s="74"/>
-      <c r="C73" s="69" t="s">
+      <c r="D72" s="66"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="60"/>
+      <c r="C73" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D73" s="69"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="74"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="74"/>
-      <c r="O73" s="74"/>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="63"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="69" t="s">
+      <c r="D73" s="66"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="60"/>
+      <c r="D74" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="74"/>
-      <c r="K74" s="74"/>
-      <c r="L74" s="74"/>
-      <c r="M74" s="74"/>
-      <c r="N74" s="74"/>
-      <c r="O74" s="74"/>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="63"/>
-      <c r="B75" s="74"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="69" t="s">
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="60"/>
+      <c r="D75" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="74"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="74"/>
-      <c r="K75" s="74"/>
-      <c r="L75" s="74"/>
-      <c r="M75" s="74"/>
-      <c r="N75" s="74"/>
-      <c r="O75" s="74"/>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="63"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="69" t="s">
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="60"/>
+      <c r="D76" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="74"/>
-      <c r="J76" s="74"/>
-      <c r="K76" s="74"/>
-      <c r="L76" s="74"/>
-      <c r="M76" s="74"/>
-      <c r="N76" s="74"/>
-      <c r="O76" s="74"/>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="63"/>
-      <c r="B77" s="74"/>
-      <c r="C77" s="69" t="s">
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="60"/>
+      <c r="C77" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="D77" s="69"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="74"/>
-      <c r="K77" s="74"/>
-      <c r="L77" s="74"/>
-      <c r="M77" s="74"/>
-      <c r="N77" s="74"/>
-      <c r="O77" s="74"/>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="63"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="69" t="s">
+      <c r="D77" s="66"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="60"/>
+      <c r="C78" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="D78" s="69"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="74"/>
-      <c r="J78" s="74"/>
-      <c r="K78" s="74"/>
-      <c r="L78" s="74"/>
-      <c r="M78" s="74"/>
-      <c r="N78" s="74"/>
-      <c r="O78" s="74"/>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" s="63"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="69" t="s">
+      <c r="D78" s="66"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="60"/>
+      <c r="C79" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="D79" s="69"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="74"/>
-      <c r="K79" s="74"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="74"/>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="63"/>
-      <c r="B80" s="74"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="69" t="s">
+      <c r="D79" s="66"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="60"/>
+      <c r="D80" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="74"/>
-      <c r="I80" s="74"/>
-      <c r="J80" s="74"/>
-      <c r="K80" s="74"/>
-      <c r="L80" s="74"/>
-      <c r="M80" s="74"/>
-      <c r="N80" s="74"/>
-      <c r="O80" s="74"/>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="63"/>
-      <c r="B81" s="74"/>
-      <c r="C81" s="74"/>
-      <c r="D81" s="69" t="s">
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="60"/>
+      <c r="D81" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="74"/>
-      <c r="I81" s="74"/>
-      <c r="J81" s="74"/>
-      <c r="K81" s="74"/>
-      <c r="L81" s="74"/>
-      <c r="M81" s="74"/>
-      <c r="N81" s="74"/>
-      <c r="O81" s="74"/>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="63"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="74" t="s">
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="60"/>
+      <c r="D82" t="s">
         <v>259</v>
       </c>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="70"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="74"/>
-      <c r="J82" s="74"/>
-      <c r="K82" s="74"/>
-      <c r="L82" s="74"/>
-      <c r="M82" s="74"/>
-      <c r="N82" s="74"/>
-      <c r="O82" s="74"/>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="63"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="69" t="s">
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="60"/>
+      <c r="D83" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="74"/>
-      <c r="I83" s="74"/>
-      <c r="J83" s="74"/>
-      <c r="K83" s="74"/>
-      <c r="L83" s="74"/>
-      <c r="M83" s="74"/>
-      <c r="N83" s="74"/>
-      <c r="O83" s="74"/>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="63"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="69" t="s">
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="60"/>
+      <c r="C84" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="D84" s="69"/>
-      <c r="E84" s="70"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="70"/>
-      <c r="H84" s="74"/>
-      <c r="I84" s="74"/>
-      <c r="J84" s="74"/>
-      <c r="K84" s="74"/>
-      <c r="L84" s="74"/>
-      <c r="M84" s="74"/>
-      <c r="N84" s="74"/>
-      <c r="O84" s="74"/>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="63"/>
-      <c r="B85" s="68" t="s">
+      <c r="D84" s="66"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="60"/>
+      <c r="B85" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="C85" s="70"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="74"/>
-      <c r="I85" s="74"/>
-      <c r="J85" s="74"/>
-      <c r="K85" s="74"/>
-      <c r="L85" s="74"/>
-      <c r="M85" s="74"/>
-      <c r="N85" s="74"/>
-      <c r="O85" s="74"/>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="63"/>
-      <c r="B86" s="68"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="74"/>
-      <c r="I86" s="74"/>
-      <c r="J86" s="74"/>
-      <c r="K86" s="74"/>
-      <c r="L86" s="74"/>
-      <c r="M86" s="74"/>
-      <c r="N86" s="74"/>
-      <c r="O86" s="74"/>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="63"/>
-      <c r="B87" s="66" t="s">
+      <c r="C85" s="67"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="60"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="60"/>
+      <c r="B87" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="70"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="74"/>
-      <c r="I87" s="74"/>
-      <c r="J87" s="74"/>
-      <c r="K87" s="74"/>
-      <c r="L87" s="74"/>
-      <c r="M87" s="74"/>
-      <c r="N87" s="74"/>
-      <c r="O87" s="74"/>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="63"/>
-      <c r="C88" s="67" t="s">
+      <c r="C87" s="67"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="60"/>
+      <c r="C88" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="D88" s="69"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="70"/>
-      <c r="H88" s="74"/>
-      <c r="I88" s="74"/>
-      <c r="J88" s="74"/>
-      <c r="K88" s="74"/>
-      <c r="L88" s="74"/>
-      <c r="M88" s="74"/>
-      <c r="N88" s="74"/>
-      <c r="O88" s="74"/>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="63"/>
-      <c r="C89" s="67" t="s">
+      <c r="D88" s="66"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="60"/>
+      <c r="C89" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="D89" s="69"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="74"/>
-      <c r="I89" s="74"/>
-      <c r="J89" s="74"/>
-      <c r="K89" s="74"/>
-      <c r="L89" s="74"/>
-      <c r="M89" s="74"/>
-      <c r="N89" s="74"/>
-      <c r="O89" s="74"/>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="63"/>
-      <c r="C90" s="67" t="s">
+      <c r="D89" s="66"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="60"/>
+      <c r="C90" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="D90" s="69"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="70"/>
-      <c r="H90" s="74"/>
-      <c r="I90" s="74"/>
-      <c r="J90" s="74"/>
-      <c r="K90" s="74"/>
-      <c r="L90" s="74"/>
-      <c r="M90" s="74"/>
-      <c r="N90" s="74"/>
-      <c r="O90" s="74"/>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="63"/>
-      <c r="C91" s="67" t="s">
+      <c r="D90" s="66"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="60"/>
+      <c r="C91" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="69"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="74"/>
-      <c r="I91" s="74"/>
-      <c r="J91" s="74"/>
-      <c r="K91" s="74"/>
-      <c r="L91" s="74"/>
-      <c r="M91" s="74"/>
-      <c r="N91" s="74"/>
-      <c r="O91" s="74"/>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="A92" s="63"/>
-      <c r="D92" s="67" t="s">
+      <c r="D91" s="66"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="60"/>
+      <c r="D92" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="74"/>
-      <c r="I92" s="74"/>
-      <c r="J92" s="74"/>
-      <c r="K92" s="74"/>
-      <c r="L92" s="74"/>
-      <c r="M92" s="74"/>
-      <c r="N92" s="74"/>
-      <c r="O92" s="74"/>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="A93" s="63"/>
-      <c r="E93" s="67" t="s">
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="60"/>
+      <c r="E93" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="74"/>
-      <c r="I93" s="74"/>
-      <c r="J93" s="74"/>
-      <c r="K93" s="74"/>
-      <c r="L93" s="74"/>
-      <c r="M93" s="74"/>
-      <c r="N93" s="74"/>
-      <c r="O93" s="74"/>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="A94" s="63"/>
-      <c r="D94" s="67" t="s">
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="60"/>
+      <c r="D94" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="74"/>
-      <c r="I94" s="74"/>
-      <c r="J94" s="74"/>
-      <c r="K94" s="74"/>
-      <c r="L94" s="74"/>
-      <c r="M94" s="74"/>
-      <c r="N94" s="74"/>
-      <c r="O94" s="74"/>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="A95" s="63"/>
-      <c r="D95" s="67" t="s">
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="60"/>
+      <c r="D95" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="74"/>
-      <c r="I95" s="74"/>
-      <c r="J95" s="74"/>
-      <c r="K95" s="74"/>
-      <c r="L95" s="74"/>
-      <c r="M95" s="74"/>
-      <c r="N95" s="74"/>
-      <c r="O95" s="74"/>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="63"/>
-      <c r="E96" s="67" t="s">
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="60"/>
+      <c r="E96" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="F96" s="70"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="74"/>
-      <c r="J96" s="74"/>
-      <c r="K96" s="74"/>
-      <c r="L96" s="74"/>
-      <c r="M96" s="74"/>
-      <c r="N96" s="74"/>
-      <c r="O96" s="74"/>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" s="63"/>
-      <c r="D97" s="67" t="s">
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="60"/>
+      <c r="D97" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="74"/>
-      <c r="K97" s="74"/>
-      <c r="L97" s="74"/>
-      <c r="M97" s="74"/>
-      <c r="N97" s="74"/>
-      <c r="O97" s="74"/>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" s="63"/>
-      <c r="D98" s="67" t="s">
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="60"/>
+      <c r="D98" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="E98" s="70"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="74"/>
-      <c r="I98" s="74"/>
-      <c r="J98" s="74"/>
-      <c r="K98" s="74"/>
-      <c r="L98" s="74"/>
-      <c r="M98" s="74"/>
-      <c r="N98" s="74"/>
-      <c r="O98" s="74"/>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" s="63"/>
-      <c r="E99" s="67" t="s">
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="60"/>
+      <c r="E99" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="74"/>
-      <c r="I99" s="74"/>
-      <c r="J99" s="74"/>
-      <c r="K99" s="74"/>
-      <c r="L99" s="74"/>
-      <c r="M99" s="74"/>
-      <c r="N99" s="74"/>
-      <c r="O99" s="74"/>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="63"/>
-      <c r="D100" s="67" t="s">
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="60"/>
+      <c r="D100" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="74"/>
-      <c r="L100" s="74"/>
-      <c r="M100" s="74"/>
-      <c r="N100" s="74"/>
-      <c r="O100" s="74"/>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="63"/>
-      <c r="C101" s="67" t="s">
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="60"/>
+      <c r="C101" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="D101" s="69"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="74"/>
-      <c r="I101" s="74"/>
-      <c r="J101" s="74"/>
-      <c r="K101" s="74"/>
-      <c r="L101" s="74"/>
-      <c r="M101" s="74"/>
-      <c r="N101" s="74"/>
-      <c r="O101" s="74"/>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="63"/>
-      <c r="B102" s="66" t="s">
+      <c r="D101" s="66"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="60"/>
+      <c r="B102" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="C102" s="70"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="70"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="74"/>
-      <c r="K102" s="74"/>
-      <c r="L102" s="74"/>
-      <c r="M102" s="74"/>
-      <c r="N102" s="74"/>
-      <c r="O102" s="74"/>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="63"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="74"/>
-      <c r="J103" s="74"/>
-      <c r="K103" s="74"/>
-      <c r="L103" s="74"/>
-      <c r="M103" s="74"/>
-      <c r="N103" s="74"/>
-      <c r="O103" s="74"/>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="63"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="70"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
-      <c r="J104" s="74"/>
-      <c r="K104" s="74"/>
-      <c r="L104" s="74"/>
-      <c r="M104" s="74"/>
-      <c r="N104" s="74"/>
-      <c r="O104" s="74"/>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="63"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="70"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
-      <c r="L105" s="74"/>
-      <c r="M105" s="74"/>
-      <c r="N105" s="74"/>
-      <c r="O105" s="74"/>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="63"/>
-      <c r="B106" s="69" t="s">
+      <c r="C102" s="67"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="60"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="60"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="60"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="60"/>
+      <c r="B106" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="C106" s="69"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="74"/>
-      <c r="K106" s="74"/>
-      <c r="L106" s="74"/>
-      <c r="M106" s="74"/>
-      <c r="N106" s="74"/>
-      <c r="O106" s="74"/>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="63"/>
-      <c r="B107" s="68" t="s">
+      <c r="C106" s="66"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="60"/>
+      <c r="B107" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="74"/>
-      <c r="K107" s="74"/>
-      <c r="L107" s="74"/>
-      <c r="M107" s="74"/>
-      <c r="N107" s="74"/>
-      <c r="O107" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16499,10 +15644,10 @@
       </c>
     </row>
     <row r="42" spans="5:12">
-      <c r="F42" s="72" t="s">
+      <c r="F42" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="L42" s="72"/>
+      <c r="L42" s="69"/>
     </row>
     <row r="43" spans="5:12">
       <c r="E43" t="s">
@@ -16525,7 +15670,7 @@
       </c>
     </row>
     <row r="48" spans="5:12">
-      <c r="F48" s="72" t="s">
+      <c r="F48" s="69" t="s">
         <v>315</v>
       </c>
     </row>
@@ -16550,156 +15695,156 @@
       </c>
     </row>
     <row r="55" spans="5:6">
-      <c r="E55" s="79" t="s">
+      <c r="E55" s="75" t="s">
         <v>316</v>
       </c>
-      <c r="F55" s="79"/>
+      <c r="F55" s="75"/>
     </row>
     <row r="56" spans="5:6">
-      <c r="E56" s="79"/>
-      <c r="F56" s="79" t="s">
+      <c r="E56" s="75"/>
+      <c r="F56" s="75" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="57" spans="5:6">
-      <c r="E57" s="79"/>
+      <c r="E57" s="75"/>
       <c r="F57" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="58" spans="5:6">
-      <c r="E58" s="79"/>
-      <c r="F58" s="72" t="s">
+      <c r="E58" s="75"/>
+      <c r="F58" s="69" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="59" spans="5:6">
-      <c r="E59" s="79" t="s">
+      <c r="E59" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="79"/>
+      <c r="F59" s="75"/>
     </row>
     <row r="61" spans="5:6">
-      <c r="E61" s="79" t="s">
+      <c r="E61" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="F61" s="79"/>
+      <c r="F61" s="75"/>
     </row>
     <row r="62" spans="5:6">
-      <c r="E62" s="79"/>
-      <c r="F62" s="79" t="s">
+      <c r="E62" s="75"/>
+      <c r="F62" s="75" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="63" spans="5:6">
-      <c r="E63" s="79"/>
+      <c r="E63" s="75"/>
       <c r="F63" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="64" spans="5:6">
-      <c r="E64" s="79" t="s">
+      <c r="E64" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="79"/>
+      <c r="F64" s="75"/>
     </row>
     <row r="66" spans="5:12">
-      <c r="E66" s="78" t="s">
+      <c r="E66" s="74" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="67" spans="5:12">
-      <c r="E67" s="67" t="s">
+      <c r="E67" s="64" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="68" spans="5:12">
-      <c r="E68" s="66" t="s">
+      <c r="E68" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="L68" s="72"/>
+      <c r="L68" s="69"/>
     </row>
     <row r="70" spans="5:12">
-      <c r="E70" s="79" t="s">
+      <c r="E70" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="F70" s="79"/>
+      <c r="F70" s="75"/>
     </row>
     <row r="71" spans="5:12">
-      <c r="E71" s="79"/>
-      <c r="F71" s="79" t="s">
+      <c r="E71" s="75"/>
+      <c r="F71" s="75" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="72" spans="5:12">
-      <c r="E72" s="79"/>
+      <c r="E72" s="75"/>
       <c r="F72" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="73" spans="5:12">
-      <c r="E73" s="79" t="s">
+      <c r="E73" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F73" s="79"/>
+      <c r="F73" s="75"/>
     </row>
     <row r="75" spans="5:12">
-      <c r="E75" s="79" t="s">
+      <c r="E75" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="F75" s="79"/>
+      <c r="F75" s="75"/>
     </row>
     <row r="76" spans="5:12">
-      <c r="E76" s="79"/>
+      <c r="E76" s="75"/>
       <c r="F76" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="77" spans="5:12">
-      <c r="E77" s="79"/>
-      <c r="F77" s="79" t="s">
+      <c r="E77" s="75"/>
+      <c r="F77" s="75" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="78" spans="5:12">
-      <c r="E78" s="79"/>
+      <c r="E78" s="75"/>
       <c r="F78" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="79" spans="5:12">
-      <c r="E79" s="79" t="s">
+      <c r="E79" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F79" s="79"/>
+      <c r="F79" s="75"/>
     </row>
     <row r="81" spans="5:6">
-      <c r="E81" s="79" t="s">
+      <c r="E81" s="75" t="s">
         <v>303</v>
       </c>
-      <c r="F81" s="79"/>
+      <c r="F81" s="75"/>
     </row>
     <row r="82" spans="5:6">
-      <c r="E82" s="79"/>
-      <c r="F82" s="79" t="s">
+      <c r="E82" s="75"/>
+      <c r="F82" s="75" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="5:6">
-      <c r="E83" s="79"/>
+      <c r="E83" s="75"/>
       <c r="F83" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="84" spans="5:6">
-      <c r="E84" s="79" t="s">
+      <c r="E84" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F84" s="79"/>
+      <c r="F84" s="75"/>
     </row>
     <row r="85" spans="5:6">
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="75"/>
     </row>
     <row r="86" spans="5:6">
       <c r="E86" t="s">
@@ -16732,102 +15877,102 @@
       </c>
     </row>
     <row r="94" spans="5:6">
-      <c r="E94" s="79" t="s">
+      <c r="E94" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="F94" s="79"/>
+      <c r="F94" s="75"/>
     </row>
     <row r="95" spans="5:6">
-      <c r="E95" s="79"/>
-      <c r="F95" s="79" t="s">
+      <c r="E95" s="75"/>
+      <c r="F95" s="75" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="96" spans="5:6">
-      <c r="E96" s="79"/>
+      <c r="E96" s="75"/>
       <c r="F96" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="97" spans="5:13">
-      <c r="E97" s="79" t="s">
+      <c r="E97" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F97" s="79"/>
+      <c r="F97" s="75"/>
     </row>
     <row r="98" spans="5:13">
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="75"/>
     </row>
     <row r="99" spans="5:13">
-      <c r="E99" s="79" t="s">
+      <c r="E99" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="F99" s="79"/>
+      <c r="F99" s="75"/>
     </row>
     <row r="100" spans="5:13">
-      <c r="E100" s="79"/>
+      <c r="E100" s="75"/>
       <c r="F100" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="101" spans="5:13">
-      <c r="E101" s="79"/>
-      <c r="F101" s="72" t="s">
+      <c r="E101" s="75"/>
+      <c r="F101" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="M101" s="72"/>
+      <c r="M101" s="69"/>
     </row>
     <row r="102" spans="5:13">
-      <c r="E102" s="79" t="s">
+      <c r="E102" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F102" s="79"/>
+      <c r="F102" s="75"/>
     </row>
     <row r="103" spans="5:13">
-      <c r="F103" s="79"/>
+      <c r="F103" s="75"/>
     </row>
     <row r="104" spans="5:13">
-      <c r="E104" s="79" t="s">
+      <c r="E104" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="F104" s="79"/>
+      <c r="F104" s="75"/>
     </row>
     <row r="105" spans="5:13">
-      <c r="E105" s="79"/>
-      <c r="F105" s="79" t="s">
+      <c r="E105" s="75"/>
+      <c r="F105" s="75" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="106" spans="5:13">
-      <c r="E106" s="79"/>
-      <c r="F106" s="79" t="s">
+      <c r="E106" s="75"/>
+      <c r="F106" s="75" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="107" spans="5:13">
-      <c r="E107" s="79" t="s">
+      <c r="E107" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="79"/>
+      <c r="F107" s="75"/>
     </row>
     <row r="109" spans="5:13">
-      <c r="E109" s="78" t="s">
+      <c r="E109" s="74" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="110" spans="5:13">
-      <c r="F110" s="67" t="s">
+      <c r="F110" s="64" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="111" spans="5:13">
-      <c r="F111" s="72" t="s">
+      <c r="F111" s="69" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="113" spans="5:5">
-      <c r="E113" s="66" t="s">
+      <c r="E113" s="63" t="s">
         <v>318</v>
       </c>
     </row>
